--- a/data/trans_dic/P2A_senso_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,22 +724,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,56</t>
+          <t>0,0; 6,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 9,09</t>
+          <t>0,73; 8,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>0,0; 4,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 10,83</t>
+          <t>1,2; 9,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,32 +754,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,53</t>
+          <t>0,65; 6,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,02</t>
+          <t>0,88; 5,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,85</t>
+          <t>0,0; 2,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,77</t>
+          <t>0,37; 5,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,8</t>
+          <t>0,42; 3,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,8</t>
+          <t>1,52; 5,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,88</t>
+          <t>1,32; 3,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,04</t>
+          <t>1,4; 3,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,13</t>
+          <t>0,31; 1,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,43</t>
+          <t>1,0; 3,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,39</t>
+          <t>0,53; 2,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,88</t>
+          <t>1,75; 4,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,91</t>
+          <t>0,21; 1,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,46</t>
+          <t>1,36; 4,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,76</t>
+          <t>1,18; 2,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 3,91</t>
+          <t>1,86; 3,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,55</t>
+          <t>0,41; 1,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,29</t>
+          <t>1,46; 3,18</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,42</t>
+          <t>0,84; 2,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,63</t>
+          <t>0,88; 2,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,82</t>
+          <t>0,46; 1,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,67</t>
+          <t>1,37; 3,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,59</t>
+          <t>0,99; 2,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,05</t>
+          <t>1,21; 3,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,11</t>
+          <t>0,62; 2,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,07</t>
+          <t>2,42; 4,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,15</t>
+          <t>1,06; 2,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,5</t>
+          <t>1,25; 2,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,71</t>
+          <t>0,67; 1,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,5</t>
+          <t>2,09; 3,52</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,35</t>
+          <t>0,56; 2,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,35</t>
+          <t>0,4; 2,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,04</t>
+          <t>0,32; 2,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,45</t>
+          <t>2,59; 5,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,84</t>
+          <t>0,88; 2,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,94</t>
+          <t>0,72; 2,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,82</t>
+          <t>0,39; 1,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 44,8</t>
+          <t>4,28; 44,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,1</t>
+          <t>0,87; 2,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,99</t>
+          <t>0,8; 2,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,59</t>
+          <t>0,47; 1,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 30,75</t>
+          <t>3,9; 30,27</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,39</t>
+          <t>0,77; 2,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,74</t>
+          <t>0,89; 2,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,21</t>
+          <t>0,67; 2,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,6</t>
+          <t>1,04; 2,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,0</t>
+          <t>1,19; 3,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,74</t>
+          <t>1,82; 3,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,86</t>
+          <t>0,59; 1,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 3,44</t>
+          <t>1,87; 3,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,28</t>
+          <t>1,19; 2,35</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,96</t>
+          <t>1,57; 2,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,76</t>
+          <t>0,75; 1,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 2,86</t>
+          <t>1,66; 2,77</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,0</t>
+          <t>1,15; 2,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,18</t>
+          <t>1,25; 2,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,45</t>
+          <t>0,67; 1,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,02</t>
+          <t>1,92; 3,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,08</t>
+          <t>1,23; 2,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,74</t>
+          <t>1,72; 2,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,52</t>
+          <t>0,74; 1,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,98; 15,67</t>
+          <t>2,95; 15,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,9</t>
+          <t>1,29; 1,9</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,31</t>
+          <t>1,6; 2,33</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,32</t>
+          <t>0,78; 1,31</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,65; 10,1</t>
+          <t>2,67; 9,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_senso_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,02%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>0,94%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,9%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,28%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2,49%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,94%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>1,56%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>1,6%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>2,18%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,47</t>
+          <t>1,27; 3,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 8,62</t>
+          <t>1,51; 3,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,85</t>
+          <t>0,4; 1,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 9,85</t>
+          <t>1,29; 3,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0,56; 2,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>1,58; 4,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 6,52</t>
+          <t>0,42; 2,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,5</t>
+          <t>1,42; 3,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,82</t>
+          <t>1,13; 2,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 5,2</t>
+          <t>1,86; 3,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,81</t>
+          <t>0,54; 1,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,74</t>
+          <t>1,52; 3,02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,43%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,76</t>
+          <t>0,84; 2,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,85</t>
+          <t>0,88; 2,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,82</t>
+          <t>0,46; 1,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,42</t>
+          <t>0,89; 3,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,62</t>
+          <t>1,05; 2,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,8</t>
+          <t>1,21; 3,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,98</t>
+          <t>0,62; 2,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,84</t>
+          <t>2,38; 4,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,71</t>
+          <t>1,1; 2,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,79</t>
+          <t>1,25; 2,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,56</t>
+          <t>0,67; 1,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,18</t>
+          <t>1,59; 3,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,22 +936,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,37 +961,37 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>15,89%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,55</t>
+          <t>0,56; 2,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,63</t>
+          <t>0,4; 2,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,94</t>
+          <t>0,32; 2,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,68</t>
+          <t>2,38; 5,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,62</t>
+          <t>0,88; 2,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,12</t>
+          <t>0,72; 2,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,13</t>
+          <t>0,39; 1,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,18</t>
+          <t>3,79; 60,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,17</t>
+          <t>0,87; 2,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,47</t>
+          <t>0,8; 2,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,73</t>
+          <t>0,47; 1,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,52</t>
+          <t>3,59; 44,14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>2,07%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,4</t>
+          <t>0,77; 2,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,15</t>
+          <t>0,89; 2,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,37</t>
+          <t>0,67; 2,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,72</t>
+          <t>1,05; 2,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,93</t>
+          <t>1,19; 3,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,64</t>
+          <t>1,82; 3,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,79</t>
+          <t>0,59; 1,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 44,49</t>
+          <t>1,7; 3,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,22</t>
+          <t>1,19; 2,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,14</t>
+          <t>1,57; 2,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,75</t>
+          <t>0,75; 1,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 30,27</t>
+          <t>1,62; 2,69</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>5,36%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,24</t>
+          <t>1,15; 2,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,77</t>
+          <t>1,25; 2,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,17</t>
+          <t>0,67; 1,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,67</t>
+          <t>1,64; 2,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,05</t>
+          <t>1,27; 2,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,89</t>
+          <t>1,72; 2,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,88</t>
+          <t>0,74; 1,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,51</t>
+          <t>2,76; 24,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,35</t>
+          <t>1,32; 1,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,95</t>
+          <t>1,6; 2,33</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,77</t>
+          <t>0,78; 1,31</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 2,77</t>
+          <t>2,43; 14,47</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,55%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,68%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,01%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,41%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1,6%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,19%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,06%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,91%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1,57%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>1,94%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1,04%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>4,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 2,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,25; 2,2</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 1,48</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,92; 3,02</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 2,11</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 2,72</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 1,44</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,95; 15,65</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 1,9</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>1,6; 2,33</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 1,31</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>2,67; 9,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P2A_senso_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad sensorial</t>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,47</t>
+          <t>1,3; 3,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,94</t>
+          <t>1,49; 4,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,94</t>
+          <t>0,31; 1,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,58</t>
+          <t>1,25; 3,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,25</t>
+          <t>0,59; 2,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,12</t>
+          <t>1,53; 4,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,03</t>
+          <t>0,42; 2,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,51</t>
+          <t>1,36; 3,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,44</t>
+          <t>1,13; 2,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,63</t>
+          <t>1,75; 3,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,58</t>
+          <t>0,51; 1,49</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,02</t>
+          <t>1,49; 3,09</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,55</t>
+          <t>0,83; 2,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,63</t>
+          <t>0,92; 2,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,94</t>
+          <t>0,43; 1,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,1</t>
+          <t>0,92; 3,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,71</t>
+          <t>0,94; 2,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,12</t>
+          <t>1,25; 3,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,13</t>
+          <t>0,65; 2,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,12</t>
+          <t>2,32; 4,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 2,22</t>
+          <t>1,11; 2,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,47</t>
+          <t>1,26; 2,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,73</t>
+          <t>0,64; 1,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,2</t>
+          <t>1,61; 3,15</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,4</t>
+          <t>0,55; 2,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,15</t>
+          <t>0,4; 2,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,37</t>
+          <t>0,32; 2,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,29</t>
+          <t>2,3; 5,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,93</t>
+          <t>0,79; 2,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,64</t>
+          <t>0,68; 2,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,79</t>
+          <t>0,29; 1,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 60,3</t>
+          <t>3,82; 57,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,22</t>
+          <t>0,83; 2,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,14</t>
+          <t>0,75; 2,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,75</t>
+          <t>0,47; 1,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 44,14</t>
+          <t>3,61; 43,0</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,24</t>
+          <t>0,79; 2,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,77</t>
+          <t>0,95; 2,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,17</t>
+          <t>0,62; 2,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,81</t>
+          <t>0,98; 2,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,05</t>
+          <t>1,2; 2,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,89</t>
+          <t>1,71; 3,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,88</t>
+          <t>0,57; 1,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,31</t>
+          <t>1,67; 3,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,35</t>
+          <t>1,17; 2,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,95</t>
+          <t>1,58; 2,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,77</t>
+          <t>0,75; 1,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,69</t>
+          <t>1,55; 2,77</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,0</t>
+          <t>1,16; 2,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,2</t>
+          <t>1,27; 2,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,48</t>
+          <t>0,69; 1,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,82</t>
+          <t>1,63; 2,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,18</t>
+          <t>1,26; 2,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,72</t>
+          <t>1,76; 2,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 1,44</t>
+          <t>0,77; 1,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 24,52</t>
+          <t>2,79; 25,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 1,92</t>
+          <t>1,3; 1,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,33</t>
+          <t>1,61; 2,32</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,31</t>
+          <t>0,79; 1,31</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,43; 14,47</t>
+          <t>2,46; 15,39</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15504</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17782</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5859</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14004</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8208</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17801</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6850</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15727</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23712</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>35583</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12709</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>29731</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9036; 24181</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10481; 29249</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2061; 12936</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7943; 23338</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4085; 15404</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10640; 29136</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2808; 13710</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9829; 26148</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>15621; 35162</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>24569; 50199</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6939; 20068</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20224; 41996</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>14183</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16457</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9614</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>22618</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>16585</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>20987</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12840</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>29631</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30768</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>37445</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>22454</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>52250</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7998; 24196</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9351; 27682</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4437; 18417</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11032; 37038</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9088; 25295</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>12867; 32280</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6765; 22608</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22227; 38923</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21506; 44105</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>25873; 53954</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13224; 34436</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>34554; 67858</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7898</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8045</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7047</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24367</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10843</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11532</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6661</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>235946</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18741</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>19577</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13708</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>260312</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3722; 17420</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3015; 18171</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2408; 15772</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16190; 35982</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5436; 19231</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5324; 20674</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2298; 13782</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>35653; 532194</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11258; 29643</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11515; 31065</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7248; 24386</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>59135; 704362</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13129</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15408</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11932</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>15765</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20383</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>27577</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11371</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>26150</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>33512</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>42985</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>23303</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>41916</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>7451; 22105</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8958; 26585</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5795; 20453</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9093; 24818</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12514; 30420</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>17943; 40196</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5954; 19445</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>18291; 37146</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>23090; 45326</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>31628; 58131</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>14874; 34517</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>31410; 56037</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>50714</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>57692</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>34452</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>76755</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>56019</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>77898</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>37722</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>307454</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>106733</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>135590</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>72174</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>384209</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>38003; 66259</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>43387; 75044</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23416; 50009</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>56418; 95588</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>42733; 73473</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>62677; 98308</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>27272; 52016</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>103513; 941132</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>86200; 127504</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>112471; 161895</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>54633; 90956</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>176341; 1103892</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>